--- a/database/6112/JobSummary.xlsx
+++ b/database/6112/JobSummary.xlsx
@@ -680,17 +680,17 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -882,9 +882,9 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>'Spool Location'!$A$1:$A$7</f>
+              <f>'Spool Location'!$A$1:$A$9</f>
               <strCache>
-                <ptCount val="7"/>
+                <ptCount val="9"/>
                 <pt idx="0">
                   <v>Not Workable</v>
                 </pt>
@@ -904,17 +904,23 @@
                   <v>Shipped to Coating</v>
                 </pt>
                 <pt idx="6">
+                  <v>Ready To Deliver</v>
+                </pt>
+                <pt idx="7">
                   <v>Delivered</v>
+                </pt>
+                <pt idx="8">
+                  <v>On Hold</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'Spool Location'!$B$1:$B$7</f>
+              <f>'Spool Location'!$B$1:$B$9</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="7"/>
+                <ptCount val="9"/>
               </numCache>
             </numRef>
           </val>
@@ -3929,10 +3935,10 @@
       <rowOff>0</rowOff>
     </from>
     <to>
-      <col>16</col>
-      <colOff>514350</colOff>
-      <row>35</row>
-      <rowOff>66674</rowOff>
+      <col>19</col>
+      <colOff>447674</colOff>
+      <row>34</row>
+      <rowOff>114300</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4403,7 +4409,7 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4418,27 +4424,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="42.75" customFormat="1" customHeight="1" s="47" thickBot="1">
-      <c r="A1" s="55" t="inlineStr">
+      <c r="A1" s="57" t="inlineStr">
         <is>
           <t>SASOL: 6112</t>
         </is>
       </c>
       <c r="B1" s="61" t="n"/>
-      <c r="C1" s="56" t="inlineStr">
+      <c r="C1" s="58" t="inlineStr">
         <is>
           <t>15059 Spools</t>
         </is>
       </c>
       <c r="D1" s="61" t="n"/>
       <c r="E1" s="49" t="n"/>
-      <c r="F1" s="56" t="inlineStr">
-        <is>
-          <t>7559 Workable</t>
+      <c r="F1" s="58" t="inlineStr">
+        <is>
+          <t>15059 Workable</t>
         </is>
       </c>
       <c r="G1" s="61" t="n"/>
       <c r="H1" s="49" t="n"/>
-      <c r="I1" s="56" t="inlineStr">
+      <c r="I1" s="58" t="inlineStr">
         <is>
           <t>15059 Issued</t>
         </is>
@@ -4460,13 +4466,13 @@
       <c r="K2" s="47" t="n"/>
     </row>
     <row r="3" ht="24.75" customFormat="1" customHeight="1" s="1">
-      <c r="A3" s="57" t="inlineStr">
+      <c r="A3" s="56" t="inlineStr">
         <is>
           <t>SPOOLS BY SCOPE</t>
         </is>
       </c>
       <c r="F3" s="19" t="n"/>
-      <c r="G3" s="57" t="inlineStr">
+      <c r="G3" s="56" t="inlineStr">
         <is>
           <t>TOTAL PURCHASED (ITEM QUANTITIES)</t>
         </is>
@@ -4860,7 +4866,7 @@
         <v/>
       </c>
       <c r="F14" s="5" t="n"/>
-      <c r="G14" s="57" t="inlineStr">
+      <c r="G14" s="56" t="inlineStr">
         <is>
           <t>TOTAL NO MATERIAL (ITEM QUANTITIES)</t>
         </is>
@@ -4943,7 +4949,7 @@
       </c>
     </row>
     <row r="17" ht="25.15" customFormat="1" customHeight="1" s="1">
-      <c r="A17" s="57" t="inlineStr">
+      <c r="A17" s="56" t="inlineStr">
         <is>
           <t>TOTAL SHORTS (ITEM QUANTITIES)</t>
         </is>
@@ -5239,7 +5245,7 @@
         <v/>
       </c>
       <c r="F25" s="21" t="n"/>
-      <c r="G25" s="57" t="inlineStr">
+      <c r="G25" s="56" t="inlineStr">
         <is>
           <t>SPOOLS MISSING VALVE ONLY</t>
         </is>
@@ -5456,10 +5462,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>299</v>
@@ -5478,7 +5484,7 @@
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>85.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M33" s="1" t="inlineStr">
@@ -5510,10 +5516,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>1497</v>
+        <v>3422</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>1497</v>
@@ -5532,7 +5538,7 @@
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M34" s="1" t="inlineStr">
@@ -5564,10 +5570,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>127</v>
@@ -5586,7 +5592,7 @@
       </c>
       <c r="L35" s="1" t="inlineStr">
         <is>
-          <t>45.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M35" s="1" t="inlineStr">
@@ -5618,10 +5624,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>301</v>
@@ -5640,7 +5646,7 @@
       </c>
       <c r="L36" s="1" t="inlineStr">
         <is>
-          <t>58.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M36" s="1" t="inlineStr">
@@ -5672,10 +5678,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>404</v>
+        <v>712</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>404</v>
@@ -5694,7 +5700,7 @@
       </c>
       <c r="L37" s="1" t="inlineStr">
         <is>
-          <t>56.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M37" s="1" t="inlineStr">
@@ -5726,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>420</v>
+        <v>603</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>420</v>
@@ -5748,7 +5754,7 @@
       </c>
       <c r="L38" s="1" t="inlineStr">
         <is>
-          <t>69.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M38" s="1" t="inlineStr">
@@ -5780,10 +5786,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>64</v>
@@ -5802,7 +5808,7 @@
       </c>
       <c r="L39" s="1" t="inlineStr">
         <is>
-          <t>55.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M39" s="1" t="inlineStr">
@@ -5834,10 +5840,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>99</v>
@@ -5856,7 +5862,7 @@
       </c>
       <c r="L40" s="1" t="inlineStr">
         <is>
-          <t>48.3%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M40" s="1" t="inlineStr">
@@ -5888,10 +5894,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>266</v>
+        <v>443</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>266</v>
@@ -5910,7 +5916,7 @@
       </c>
       <c r="L41" s="1" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M41" s="1" t="inlineStr">
@@ -5942,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>27</v>
+        <v>382</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>27</v>
@@ -5964,7 +5970,7 @@
       </c>
       <c r="L42" s="1" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M42" s="1" t="inlineStr">
@@ -5996,10 +6002,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>70</v>
+        <v>312</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>70</v>
@@ -6018,7 +6024,7 @@
       </c>
       <c r="L43" s="1" t="inlineStr">
         <is>
-          <t>22.4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M43" s="1" t="inlineStr">
@@ -6050,10 +6056,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>82</v>
@@ -6072,7 +6078,7 @@
       </c>
       <c r="L44" s="1" t="inlineStr">
         <is>
-          <t>21.4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M44" s="1" t="inlineStr">
@@ -6104,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>183</v>
+        <v>713</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>183</v>
@@ -6126,7 +6132,7 @@
       </c>
       <c r="L45" s="1" t="inlineStr">
         <is>
-          <t>25.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M45" s="1" t="inlineStr">
@@ -6158,10 +6164,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>135</v>
@@ -6180,7 +6186,7 @@
       </c>
       <c r="L46" s="1" t="inlineStr">
         <is>
-          <t>57.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M46" s="1" t="inlineStr">
@@ -6212,10 +6218,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>483</v>
+        <v>791</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>483</v>
@@ -6234,7 +6240,7 @@
       </c>
       <c r="L47" s="1" t="inlineStr">
         <is>
-          <t>61.1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M47" s="1" t="inlineStr">
@@ -6266,10 +6272,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>2</v>
@@ -6288,7 +6294,7 @@
       </c>
       <c r="L48" s="1" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M48" s="1" t="inlineStr">
@@ -6320,10 +6326,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>62</v>
@@ -6342,7 +6348,7 @@
       </c>
       <c r="L49" s="1" t="inlineStr">
         <is>
-          <t>27.4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M49" s="1" t="inlineStr">
@@ -6374,10 +6380,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>505</v>
+        <v>932</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>505</v>
@@ -6396,7 +6402,7 @@
       </c>
       <c r="L50" s="1" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M50" s="1" t="inlineStr">
@@ -6428,10 +6434,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>466</v>
+        <v>765</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>466</v>
@@ -6450,7 +6456,7 @@
       </c>
       <c r="L51" s="1" t="inlineStr">
         <is>
-          <t>60.9%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M51" s="1" t="inlineStr">
@@ -6482,10 +6488,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>30</v>
@@ -6504,7 +6510,7 @@
       </c>
       <c r="L52" s="1" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M52" s="1" t="inlineStr">
@@ -6536,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>6</v>
@@ -6558,7 +6564,7 @@
       </c>
       <c r="L53" s="1" t="inlineStr">
         <is>
-          <t>19.4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M53" s="1" t="inlineStr">
@@ -6590,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>243</v>
+        <v>391</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>243</v>
@@ -6612,7 +6618,7 @@
       </c>
       <c r="L54" s="1" t="inlineStr">
         <is>
-          <t>62.1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M54" s="1" t="inlineStr">
@@ -6644,10 +6650,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>89</v>
@@ -6666,7 +6672,7 @@
       </c>
       <c r="L55" s="1" t="inlineStr">
         <is>
-          <t>66.9%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M55" s="1" t="inlineStr">
@@ -6698,10 +6704,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>672</v>
+        <v>1125</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>672</v>
@@ -6720,7 +6726,7 @@
       </c>
       <c r="L56" s="1" t="inlineStr">
         <is>
-          <t>59.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M56" s="1" t="inlineStr">
@@ -6752,10 +6758,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>188</v>
@@ -6774,7 +6780,7 @@
       </c>
       <c r="L57" s="1" t="inlineStr">
         <is>
-          <t>71.8%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M57" s="1" t="inlineStr">
@@ -6806,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>68</v>
@@ -6828,7 +6834,7 @@
       </c>
       <c r="L58" s="1" t="inlineStr">
         <is>
-          <t>53.5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M58" s="1" t="inlineStr">
@@ -6860,10 +6866,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>36</v>
@@ -6882,7 +6888,7 @@
       </c>
       <c r="L59" s="1" t="inlineStr">
         <is>
-          <t>32.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M59" s="1" t="inlineStr">
@@ -6914,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>6</v>
@@ -6936,7 +6942,7 @@
       </c>
       <c r="L60" s="1" t="inlineStr">
         <is>
-          <t>13.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M60" s="1" t="inlineStr">
@@ -6968,10 +6974,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>49</v>
@@ -6990,7 +6996,7 @@
       </c>
       <c r="L61" s="1" t="inlineStr">
         <is>
-          <t>21.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M61" s="1" t="inlineStr">
@@ -7022,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>680</v>
+        <v>1143</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>680</v>
@@ -7044,7 +7050,7 @@
       </c>
       <c r="L62" s="1" t="inlineStr">
         <is>
-          <t>59.5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M62" s="1" t="inlineStr">
@@ -7072,10 +7078,10 @@
         <v>0</v>
       </c>
       <c r="E63" s="64" t="n">
-        <v>7559</v>
+        <v>15059</v>
       </c>
       <c r="F63" s="64" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="G63" s="64" t="n">
         <v>7559</v>
@@ -7094,7 +7100,7 @@
       </c>
       <c r="L63" s="64" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M63" s="64" t="inlineStr">
@@ -7110,16 +7116,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A31:N31"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="G25:K25"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="17" scale="88" fitToHeight="0" verticalDpi="0"/>
@@ -7331,10 +7337,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5" t="n">
         <v>299</v>
@@ -7353,7 +7359,7 @@
       </c>
       <c r="L3" s="5" t="inlineStr">
         <is>
-          <t>85.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M3" s="5" t="inlineStr">
@@ -7385,10 +7391,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1497</v>
+        <v>3422</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>1497</v>
@@ -7407,7 +7413,7 @@
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M4" s="5" t="inlineStr">
@@ -7439,10 +7445,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>127</v>
@@ -7461,7 +7467,7 @@
       </c>
       <c r="L5" s="5" t="inlineStr">
         <is>
-          <t>45.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M5" s="5" t="inlineStr">
@@ -7493,10 +7499,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>301</v>
@@ -7515,7 +7521,7 @@
       </c>
       <c r="L6" s="5" t="inlineStr">
         <is>
-          <t>58.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M6" s="5" t="inlineStr">
@@ -7547,10 +7553,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>404</v>
+        <v>712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>404</v>
@@ -7569,7 +7575,7 @@
       </c>
       <c r="L7" s="5" t="inlineStr">
         <is>
-          <t>56.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M7" s="5" t="inlineStr">
@@ -7601,10 +7607,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>420</v>
+        <v>603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>420</v>
@@ -7623,7 +7629,7 @@
       </c>
       <c r="L8" s="5" t="inlineStr">
         <is>
-          <t>69.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M8" s="5" t="inlineStr">
@@ -7655,10 +7661,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>64</v>
@@ -7677,7 +7683,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>55.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M9" s="5" t="inlineStr">
@@ -7709,10 +7715,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>99</v>
@@ -7731,7 +7737,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>48.3%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M10" s="5" t="inlineStr">
@@ -7763,10 +7769,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>266</v>
+        <v>443</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>266</v>
@@ -7785,7 +7791,7 @@
       </c>
       <c r="L11" s="5" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M11" s="5" t="inlineStr">
@@ -7817,10 +7823,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27</v>
+        <v>382</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>27</v>
@@ -7839,7 +7845,7 @@
       </c>
       <c r="L12" s="5" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M12" s="5" t="inlineStr">
@@ -7871,10 +7877,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70</v>
+        <v>312</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>70</v>
@@ -7893,7 +7899,7 @@
       </c>
       <c r="L13" s="5" t="inlineStr">
         <is>
-          <t>22.4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M13" s="5" t="inlineStr">
@@ -7925,10 +7931,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>82</v>
@@ -7947,7 +7953,7 @@
       </c>
       <c r="L14" s="5" t="inlineStr">
         <is>
-          <t>21.4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M14" s="5" t="inlineStr">
@@ -7979,10 +7985,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>183</v>
+        <v>713</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>183</v>
@@ -8001,7 +8007,7 @@
       </c>
       <c r="L15" s="5" t="inlineStr">
         <is>
-          <t>25.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M15" s="5" t="inlineStr">
@@ -8033,10 +8039,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>135</v>
@@ -8055,7 +8061,7 @@
       </c>
       <c r="L16" s="5" t="inlineStr">
         <is>
-          <t>57.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M16" s="5" t="inlineStr">
@@ -8087,10 +8093,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>483</v>
+        <v>791</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>483</v>
@@ -8109,7 +8115,7 @@
       </c>
       <c r="L17" s="5" t="inlineStr">
         <is>
-          <t>61.1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M17" s="5" t="inlineStr">
@@ -8141,10 +8147,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>2</v>
@@ -8163,7 +8169,7 @@
       </c>
       <c r="L18" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M18" s="5" t="inlineStr">
@@ -8195,10 +8201,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>62</v>
@@ -8217,7 +8223,7 @@
       </c>
       <c r="L19" s="5" t="inlineStr">
         <is>
-          <t>27.4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M19" s="5" t="inlineStr">
@@ -8249,10 +8255,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>505</v>
+        <v>932</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>505</v>
@@ -8271,7 +8277,7 @@
       </c>
       <c r="L20" s="5" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M20" s="5" t="inlineStr">
@@ -8303,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>466</v>
+        <v>765</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>466</v>
@@ -8325,7 +8331,7 @@
       </c>
       <c r="L21" s="5" t="inlineStr">
         <is>
-          <t>60.9%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M21" s="5" t="inlineStr">
@@ -8357,10 +8363,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>30</v>
@@ -8379,7 +8385,7 @@
       </c>
       <c r="L22" s="5" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M22" s="5" t="inlineStr">
@@ -8411,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>6</v>
@@ -8433,7 +8439,7 @@
       </c>
       <c r="L23" s="5" t="inlineStr">
         <is>
-          <t>19.4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M23" s="5" t="inlineStr">
@@ -8465,10 +8471,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>243</v>
+        <v>391</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>243</v>
@@ -8487,7 +8493,7 @@
       </c>
       <c r="L24" s="5" t="inlineStr">
         <is>
-          <t>62.1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M24" s="5" t="inlineStr">
@@ -8519,10 +8525,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>89</v>
@@ -8541,7 +8547,7 @@
       </c>
       <c r="L25" s="5" t="inlineStr">
         <is>
-          <t>66.9%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M25" s="5" t="inlineStr">
@@ -8573,10 +8579,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>672</v>
+        <v>1125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>672</v>
@@ -8595,7 +8601,7 @@
       </c>
       <c r="L26" s="5" t="inlineStr">
         <is>
-          <t>59.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M26" s="5" t="inlineStr">
@@ -8627,10 +8633,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>188</v>
@@ -8649,7 +8655,7 @@
       </c>
       <c r="L27" s="5" t="inlineStr">
         <is>
-          <t>71.8%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M27" s="5" t="inlineStr">
@@ -8681,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>68</v>
@@ -8703,7 +8709,7 @@
       </c>
       <c r="L28" s="5" t="inlineStr">
         <is>
-          <t>53.5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M28" s="5" t="inlineStr">
@@ -8735,10 +8741,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>36</v>
@@ -8757,7 +8763,7 @@
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
-          <t>32.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M29" s="5" t="inlineStr">
@@ -8789,10 +8795,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>6</v>
@@ -8811,7 +8817,7 @@
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
-          <t>13.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M30" s="5" t="inlineStr">
@@ -8843,10 +8849,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>49</v>
@@ -8865,7 +8871,7 @@
       </c>
       <c r="L31" s="5" t="inlineStr">
         <is>
-          <t>21.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M31" s="5" t="inlineStr">
@@ -8897,10 +8903,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>680</v>
+        <v>1143</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>680</v>
@@ -8919,7 +8925,7 @@
       </c>
       <c r="L32" s="5" t="inlineStr">
         <is>
-          <t>59.5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M32" s="5" t="inlineStr">
@@ -8947,10 +8953,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="67" t="n">
-        <v>7559</v>
+        <v>15059</v>
       </c>
       <c r="F33" s="67" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="G33" s="67" t="n">
         <v>7559</v>
@@ -8969,7 +8975,7 @@
       </c>
       <c r="L33" s="67" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M33" s="67" t="inlineStr">
@@ -9172,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1271</v>
+        <v>1278</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>1271</v>
@@ -9194,7 +9200,7 @@
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>99.5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M4" s="5" t="inlineStr">
@@ -9550,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>394</v>
@@ -9572,7 +9578,7 @@
       </c>
       <c r="L11" s="5" t="inlineStr">
         <is>
-          <t>99.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M11" s="5" t="inlineStr">
@@ -9982,10 +9988,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>669</v>
@@ -10004,7 +10010,7 @@
       </c>
       <c r="L19" s="5" t="inlineStr">
         <is>
-          <t>99.3%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M19" s="5" t="inlineStr">
@@ -10036,10 +10042,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>478</v>
@@ -10058,7 +10064,7 @@
       </c>
       <c r="L20" s="5" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M20" s="5" t="inlineStr">
@@ -10090,10 +10096,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>284</v>
@@ -10112,7 +10118,7 @@
       </c>
       <c r="L21" s="5" t="inlineStr">
         <is>
-          <t>99.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M21" s="5" t="inlineStr">
@@ -10144,10 +10150,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>670</v>
@@ -10166,7 +10172,7 @@
       </c>
       <c r="L22" s="5" t="inlineStr">
         <is>
-          <t>99.4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M22" s="5" t="inlineStr">
@@ -10198,10 +10204,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>243</v>
@@ -10220,7 +10226,7 @@
       </c>
       <c r="L23" s="5" t="inlineStr">
         <is>
-          <t>97.6%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M23" s="5" t="inlineStr">
@@ -10252,10 +10258,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>495</v>
@@ -10274,7 +10280,7 @@
       </c>
       <c r="L24" s="5" t="inlineStr">
         <is>
-          <t>99.4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M24" s="5" t="inlineStr">
@@ -10360,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>130</v>
@@ -10382,7 +10388,7 @@
       </c>
       <c r="L26" s="5" t="inlineStr">
         <is>
-          <t>86.1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M26" s="5" t="inlineStr">
@@ -10522,10 +10528,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>55</v>
@@ -10544,7 +10550,7 @@
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
-          <t>90.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M29" s="5" t="inlineStr">
@@ -10576,10 +10582,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>161</v>
@@ -10598,7 +10604,7 @@
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
-          <t>93.6%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M30" s="5" t="inlineStr">
@@ -10630,10 +10636,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>47</v>
@@ -10652,7 +10658,7 @@
       </c>
       <c r="L31" s="5" t="inlineStr">
         <is>
-          <t>94.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M31" s="5" t="inlineStr">
@@ -10680,10 +10686,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="67" t="n">
-        <v>7132</v>
+        <v>7205</v>
       </c>
       <c r="F32" s="67" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G32" s="67" t="n">
         <v>7132</v>
@@ -10702,7 +10708,7 @@
       </c>
       <c r="L32" s="67" t="inlineStr">
         <is>
-          <t>99%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M32" s="67" t="inlineStr">
@@ -10829,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>10</v>
@@ -10851,7 +10857,7 @@
       </c>
       <c r="L36" s="5" t="inlineStr">
         <is>
-          <t>16.1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M36" s="5" t="inlineStr">
@@ -10883,10 +10889,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>226</v>
+        <v>2144</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1918</v>
+        <v>0</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>226</v>
@@ -10905,7 +10911,7 @@
       </c>
       <c r="L37" s="5" t="inlineStr">
         <is>
-          <t>10.5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M37" s="5" t="inlineStr">
@@ -10937,10 +10943,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>4</v>
@@ -10959,7 +10965,7 @@
       </c>
       <c r="L38" s="5" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M38" s="5" t="inlineStr">
@@ -10991,10 +10997,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>16</v>
+        <v>318</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>16</v>
@@ -11013,7 +11019,7 @@
       </c>
       <c r="L39" s="5" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M39" s="5" t="inlineStr">
@@ -11045,10 +11051,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>0</v>
@@ -11067,7 +11073,7 @@
       </c>
       <c r="L40" s="5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M40" s="5" t="inlineStr">
@@ -11099,10 +11105,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>0</v>
@@ -11121,7 +11127,7 @@
       </c>
       <c r="L41" s="5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M41" s="5" t="inlineStr">
@@ -11153,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>0</v>
@@ -11175,7 +11181,7 @@
       </c>
       <c r="L42" s="5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M42" s="5" t="inlineStr">
@@ -11207,10 +11213,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>15</v>
@@ -11229,7 +11235,7 @@
       </c>
       <c r="L43" s="5" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M43" s="5" t="inlineStr">
@@ -11261,10 +11267,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>0</v>
@@ -11283,7 +11289,7 @@
       </c>
       <c r="L44" s="5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M44" s="5" t="inlineStr">
@@ -11315,10 +11321,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>10</v>
@@ -11337,7 +11343,7 @@
       </c>
       <c r="L45" s="5" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M45" s="5" t="inlineStr">
@@ -11369,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>0</v>
@@ -11391,7 +11397,7 @@
       </c>
       <c r="L46" s="5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M46" s="5" t="inlineStr">
@@ -11423,10 +11429,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>20</v>
@@ -11445,7 +11451,7 @@
       </c>
       <c r="L47" s="5" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M47" s="5" t="inlineStr">
@@ -11477,10 +11483,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>17</v>
@@ -11499,7 +11505,7 @@
       </c>
       <c r="L48" s="5" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M48" s="5" t="inlineStr">
@@ -11531,10 +11537,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>3</v>
+        <v>451</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>3</v>
@@ -11553,7 +11559,7 @@
       </c>
       <c r="L49" s="5" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M49" s="5" t="inlineStr">
@@ -11585,10 +11591,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>10</v>
+        <v>469</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>10</v>
@@ -11607,7 +11613,7 @@
       </c>
       <c r="L50" s="5" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M50" s="5" t="inlineStr">
@@ -11639,10 +11645,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>13</v>
+        <v>368</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>13</v>
@@ -11661,7 +11667,7 @@
       </c>
       <c r="L51" s="5" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M51" s="5" t="inlineStr">
@@ -11693,10 +11699,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>22</v>
+        <v>541</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>22</v>
@@ -11715,7 +11721,7 @@
       </c>
       <c r="L52" s="5" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M52" s="5" t="inlineStr">
@@ -11747,10 +11753,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>3</v>
@@ -11769,7 +11775,7 @@
       </c>
       <c r="L53" s="5" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M53" s="5" t="inlineStr">
@@ -11801,10 +11807,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>0</v>
@@ -11823,7 +11829,7 @@
       </c>
       <c r="L54" s="5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M54" s="5" t="inlineStr">
@@ -11855,10 +11861,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>0</v>
@@ -11877,7 +11883,7 @@
       </c>
       <c r="L55" s="5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M55" s="5" t="inlineStr">
@@ -11909,10 +11915,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>5</v>
+        <v>312</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>5</v>
@@ -11931,7 +11937,7 @@
       </c>
       <c r="L56" s="5" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M56" s="5" t="inlineStr">
@@ -11963,10 +11969,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>17</v>
@@ -11985,7 +11991,7 @@
       </c>
       <c r="L57" s="5" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M57" s="5" t="inlineStr">
@@ -12017,10 +12023,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>10</v>
+        <v>434</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>10</v>
@@ -12039,7 +12045,7 @@
       </c>
       <c r="L58" s="5" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M58" s="5" t="inlineStr">
@@ -12071,10 +12077,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>17</v>
@@ -12093,7 +12099,7 @@
       </c>
       <c r="L59" s="5" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M59" s="5" t="inlineStr">
@@ -12125,10 +12131,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>0</v>
@@ -12147,7 +12153,7 @@
       </c>
       <c r="L60" s="5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M60" s="5" t="inlineStr">
@@ -12179,10 +12185,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>0</v>
@@ -12201,7 +12207,7 @@
       </c>
       <c r="L61" s="5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M61" s="5" t="inlineStr">
@@ -12233,10 +12239,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>2</v>
@@ -12255,7 +12261,7 @@
       </c>
       <c r="L62" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M62" s="5" t="inlineStr">
@@ -12287,10 +12293,10 @@
         <v>0</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>0</v>
@@ -12309,7 +12315,7 @@
       </c>
       <c r="L63" s="5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M63" s="5" t="inlineStr">
@@ -12341,10 +12347,10 @@
         <v>0</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>5</v>
@@ -12363,7 +12369,7 @@
       </c>
       <c r="L64" s="5" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M64" s="5" t="inlineStr">
@@ -12395,10 +12401,10 @@
         <v>0</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>2</v>
@@ -12417,7 +12423,7 @@
       </c>
       <c r="L65" s="5" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M65" s="5" t="inlineStr">
@@ -12445,10 +12451,10 @@
         <v>0</v>
       </c>
       <c r="E66" s="67" t="n">
-        <v>427</v>
+        <v>7854</v>
       </c>
       <c r="F66" s="67" t="n">
-        <v>7427</v>
+        <v>0</v>
       </c>
       <c r="G66" s="67" t="n">
         <v>427</v>
@@ -12467,7 +12473,7 @@
       </c>
       <c r="L66" s="67" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M66" s="67" t="inlineStr">
@@ -12499,7 +12505,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -12513,7 +12519,9 @@
           <t>Not Workable</t>
         </is>
       </c>
-      <c r="B1" s="26" t="n"/>
+      <c r="B1" s="26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="26" t="inlineStr">
@@ -12521,7 +12529,9 @@
           <t>Workable</t>
         </is>
       </c>
-      <c r="B2" s="26" t="n"/>
+      <c r="B2" s="26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="inlineStr">
@@ -12529,7 +12539,9 @@
           <t>Issued</t>
         </is>
       </c>
-      <c r="B3" s="26" t="n"/>
+      <c r="B3" s="26" t="n">
+        <v>7500</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="26" t="inlineStr">
@@ -12537,7 +12549,9 @@
           <t>Pulled</t>
         </is>
       </c>
-      <c r="B4" s="26" t="n"/>
+      <c r="B4" s="26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="inlineStr">
@@ -12545,7 +12559,9 @@
           <t>Welded Out</t>
         </is>
       </c>
-      <c r="B5" s="26" t="n"/>
+      <c r="B5" s="26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="26" t="inlineStr">
@@ -12553,23 +12569,39 @@
           <t>Shipped to Coating</t>
         </is>
       </c>
-      <c r="B6" s="26" t="n"/>
+      <c r="B6" s="26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="26" t="inlineStr">
         <is>
+          <t>Ready To Deliver</t>
+        </is>
+      </c>
+      <c r="B7" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="inlineStr">
+        <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="B7" s="26" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="26" t="n"/>
-      <c r="B8" s="26" t="n"/>
+      <c r="B8" s="26" t="n">
+        <v>7558</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="26" t="n"/>
-      <c r="B9" s="26" t="n"/>
+      <c r="A9" s="26" t="inlineStr">
+        <is>
+          <t>On Hold</t>
+        </is>
+      </c>
+      <c r="B9" s="26" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12604,7 +12636,7 @@
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>7559 Workable</t>
+          <t>15059 Workable</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -12859,7 +12891,7 @@
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>7559 Workable</t>
+          <t>15059 Workable</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -13090,7 +13122,7 @@
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>7559 Workable</t>
+          <t>15059 Workable</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -13408,7 +13440,7 @@
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>7559 Workable</t>
+          <t>15059 Workable</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
